--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_egy.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_egy.xlsx
@@ -1051,7 +1051,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="2:30">
       <c r="B1" s="1" t="s">
@@ -1147,7 +1147,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>1e-6</v>
+        <v>3.89742198231699</v>
       </c>
       <c r="C2">
         <v>1e-6</v>

--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_egy.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_egy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>2022</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>Output per Capita</t>
+  </si>
+  <si>
+    <t>Education Cost (%GDP)</t>
+  </si>
+  <si>
+    <t>Healthcare Cost (%GDP)</t>
+  </si>
+  <si>
+    <t>Infrastructure Investment (%GDP)</t>
+  </si>
+  <si>
+    <t>Reinvestment (%GDP)</t>
   </si>
 </sst>
 </file>
@@ -1045,13 +1057,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="2:30">
       <c r="B1" s="1" t="s">
@@ -1150,88 +1162,372 @@
         <v>3.89742198231699</v>
       </c>
       <c r="C2">
-        <v>1e-6</v>
+        <v>3.72218422066935</v>
       </c>
       <c r="D2">
-        <v>1e-6</v>
+        <v>3.5602532605856</v>
       </c>
       <c r="E2">
-        <v>1e-6</v>
+        <v>3.40319521862465</v>
       </c>
       <c r="F2">
-        <v>1e-6</v>
+        <v>3.25093288843131</v>
       </c>
       <c r="G2">
-        <v>1e-6</v>
+        <v>3.09863648851512</v>
       </c>
       <c r="H2">
-        <v>1e-6</v>
+        <v>2.96059618114546</v>
       </c>
       <c r="I2">
-        <v>1e-6</v>
+        <v>2.82600774464344</v>
       </c>
       <c r="J2">
-        <v>1e-6</v>
+        <v>2.6969010681015</v>
       </c>
       <c r="K2">
-        <v>1e-6</v>
+        <v>2.58034095050582</v>
       </c>
       <c r="L2">
-        <v>1e-6</v>
+        <v>2.47047299647285</v>
       </c>
       <c r="M2">
-        <v>1e-6</v>
+        <v>2.36589503299126</v>
       </c>
       <c r="N2">
-        <v>1e-6</v>
+        <v>2.26762003167822</v>
       </c>
       <c r="O2">
-        <v>1e-6</v>
+        <v>2.17436343003533</v>
       </c>
       <c r="P2">
-        <v>1e-6</v>
+        <v>2.08548490370239</v>
       </c>
       <c r="Q2">
-        <v>1e-6</v>
+        <v>2.00134014659215</v>
       </c>
       <c r="R2">
-        <v>1e-6</v>
+        <v>1.92162680428635</v>
       </c>
       <c r="S2">
-        <v>1e-6</v>
+        <v>1.84560397784902</v>
       </c>
       <c r="T2">
-        <v>1e-6</v>
+        <v>1.77221595573701</v>
       </c>
       <c r="U2">
-        <v>1e-6</v>
+        <v>1.7009740608576</v>
       </c>
       <c r="V2">
-        <v>1e-6</v>
+        <v>1.6331643664551</v>
       </c>
       <c r="W2">
-        <v>1e-6</v>
+        <v>1.56871917369966</v>
       </c>
       <c r="X2">
-        <v>1e-6</v>
+        <v>1.50686924057564</v>
       </c>
       <c r="Y2">
-        <v>1e-6</v>
+        <v>1.44688581529147</v>
       </c>
       <c r="Z2">
-        <v>1e-6</v>
+        <v>1.38994026797217</v>
       </c>
       <c r="AA2">
-        <v>1e-6</v>
+        <v>1.33601176717499</v>
       </c>
       <c r="AB2">
-        <v>1e-6</v>
+        <v>1.29027251758197</v>
       </c>
       <c r="AC2">
-        <v>1e-6</v>
+        <v>1.25582553971788</v>
       </c>
       <c r="AD2">
-        <v>1e-6</v>
+        <v>0.617899192545663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>0.0178814221273192</v>
+      </c>
+      <c r="C3">
+        <v>0.00146917111799757</v>
+      </c>
+      <c r="D3">
+        <v>0.00233056120895204</v>
+      </c>
+      <c r="E3">
+        <v>0.0040033229298765</v>
+      </c>
+      <c r="F3">
+        <v>0.00328882327734819</v>
+      </c>
+      <c r="G3">
+        <v>0.00467013129339902</v>
+      </c>
+      <c r="H3">
+        <v>0.0263952028235325</v>
+      </c>
+      <c r="I3">
+        <v>0.0274181307403616</v>
+      </c>
+      <c r="J3">
+        <v>0.0282831051483787</v>
+      </c>
+      <c r="K3">
+        <v>0.0287829967071491</v>
+      </c>
+      <c r="L3">
+        <v>0.0292976283915944</v>
+      </c>
+      <c r="M3">
+        <v>0.0299174268228017</v>
+      </c>
+      <c r="N3">
+        <v>0.0304425762373613</v>
+      </c>
+      <c r="O3">
+        <v>0.0310476477107339</v>
+      </c>
+      <c r="P3">
+        <v>0.0318202206563507</v>
+      </c>
+      <c r="Q3">
+        <v>0.0325007509859293</v>
+      </c>
+      <c r="R3">
+        <v>0.0331045950956011</v>
+      </c>
+      <c r="S3">
+        <v>0.0337126753550952</v>
+      </c>
+      <c r="T3">
+        <v>0.0344804344317261</v>
+      </c>
+      <c r="U3">
+        <v>0.0355310695139644</v>
+      </c>
+      <c r="V3">
+        <v>0.0365449196231248</v>
+      </c>
+      <c r="W3">
+        <v>0.0375143831886992</v>
+      </c>
+      <c r="X3">
+        <v>0.0385109668851074</v>
+      </c>
+      <c r="Y3">
+        <v>0.0397667226991033</v>
+      </c>
+      <c r="Z3">
+        <v>0.040918381303956</v>
+      </c>
+      <c r="AA3">
+        <v>0.041924253475487</v>
+      </c>
+      <c r="AB3">
+        <v>0.042584431687037</v>
+      </c>
+      <c r="AC3">
+        <v>0.0428599164568257</v>
+      </c>
+      <c r="AD3">
+        <v>0.0851820636582114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>0.0145921957798779</v>
+      </c>
+      <c r="C4">
+        <v>0.00292292071977875</v>
+      </c>
+      <c r="D4">
+        <v>0.015853191372322</v>
+      </c>
+      <c r="E4">
+        <v>0.0164951507425483</v>
+      </c>
+      <c r="F4">
+        <v>0.0171914353383514</v>
+      </c>
+      <c r="G4">
+        <v>0.0180583176789407</v>
+      </c>
+      <c r="H4">
+        <v>0.0187777971535012</v>
+      </c>
+      <c r="I4">
+        <v>0.0195771436903075</v>
+      </c>
+      <c r="J4">
+        <v>0.020406970578734</v>
+      </c>
+      <c r="K4">
+        <v>0.0210918199630658</v>
+      </c>
+      <c r="L4">
+        <v>0.0217703909485197</v>
+      </c>
+      <c r="M4">
+        <v>0.0224748059438496</v>
+      </c>
+      <c r="N4">
+        <v>0.0231524708589729</v>
+      </c>
+      <c r="O4">
+        <v>0.0238327855897672</v>
+      </c>
+      <c r="P4">
+        <v>0.0245366776121301</v>
+      </c>
+      <c r="Q4">
+        <v>0.025234549214587</v>
+      </c>
+      <c r="R4">
+        <v>0.0259256309161802</v>
+      </c>
+      <c r="S4">
+        <v>0.026636641340361</v>
+      </c>
+      <c r="T4">
+        <v>0.0274205319498982</v>
+      </c>
+      <c r="U4">
+        <v>0.0283034366785824</v>
+      </c>
+      <c r="V4">
+        <v>0.0292022819842804</v>
+      </c>
+      <c r="W4">
+        <v>0.0301110748580279</v>
+      </c>
+      <c r="X4">
+        <v>0.0310804483929856</v>
+      </c>
+      <c r="Y4">
+        <v>0.0321681759189813</v>
+      </c>
+      <c r="Z4">
+        <v>0.0332572268893937</v>
+      </c>
+      <c r="AA4">
+        <v>0.0343305235485702</v>
+      </c>
+      <c r="AB4">
+        <v>0.0352378589908725</v>
+      </c>
+      <c r="AC4">
+        <v>0.0358808908666162</v>
+      </c>
+      <c r="AD4">
+        <v>0.0722587235849344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD5">
+        <v>0.0204278298736114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>0.111473618164269</v>
+      </c>
+      <c r="C6">
+        <v>0.0833920921019649</v>
+      </c>
+      <c r="D6">
+        <v>0.0971837528522659</v>
+      </c>
+      <c r="E6">
+        <v>0.099498473950445</v>
+      </c>
+      <c r="F6">
+        <v>0.0994802589009793</v>
+      </c>
+      <c r="G6">
+        <v>0.10172844926558</v>
+      </c>
+      <c r="H6">
+        <v>0.124173000277645</v>
+      </c>
+      <c r="I6">
+        <v>0.125995274738947</v>
+      </c>
+      <c r="J6">
+        <v>0.12769007604315</v>
+      </c>
+      <c r="K6">
+        <v>0.128874816993656</v>
+      </c>
+      <c r="L6">
+        <v>0.130068019671132</v>
+      </c>
+      <c r="M6">
+        <v>0.131392233105543</v>
+      </c>
+      <c r="N6">
+        <v>0.132595047443202</v>
+      </c>
+      <c r="O6">
+        <v>0.133880433655554</v>
+      </c>
+      <c r="P6">
+        <v>0.135356898632035</v>
+      </c>
+      <c r="Q6">
+        <v>0.136735300572782</v>
+      </c>
+      <c r="R6">
+        <v>0.138030226392978</v>
+      </c>
+      <c r="S6">
+        <v>0.139349317085916</v>
+      </c>
+      <c r="T6">
+        <v>0.140900966781883</v>
+      </c>
+      <c r="U6">
+        <v>0.142834506603222</v>
+      </c>
+      <c r="V6">
+        <v>0.144747202028826</v>
+      </c>
+      <c r="W6">
+        <v>0.146625458479224</v>
+      </c>
+      <c r="X6">
+        <v>0.148591415722207</v>
+      </c>
+      <c r="Y6">
+        <v>0.150934899074573</v>
+      </c>
+      <c r="Z6">
+        <v>0.153175608662518</v>
+      </c>
+      <c r="AA6">
+        <v>0.155254777506167</v>
+      </c>
+      <c r="AB6">
+        <v>0.156822291171157</v>
+      </c>
+      <c r="AC6">
+        <v>0.157740807824379</v>
+      </c>
+      <c r="AD6">
+        <v>0.25686861711675</v>
       </c>
     </row>
   </sheetData>

--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_egy.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_egy.xlsx
@@ -1159,91 +1159,91 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>3.89742198231699</v>
+        <v>5.269982879994</v>
       </c>
       <c r="C2">
-        <v>3.72218422066935</v>
+        <v>5.62264616572287</v>
       </c>
       <c r="D2">
-        <v>3.5602532605856</v>
+        <v>5.57293611371843</v>
       </c>
       <c r="E2">
-        <v>3.40319521862465</v>
+        <v>5.48839098906</v>
       </c>
       <c r="F2">
-        <v>3.25093288843131</v>
+        <v>5.38137672062581</v>
       </c>
       <c r="G2">
-        <v>3.09863648851512</v>
+        <v>5.24880151516661</v>
       </c>
       <c r="H2">
-        <v>2.96059618114546</v>
+        <v>5.1258134737872</v>
       </c>
       <c r="I2">
-        <v>2.82600774464344</v>
+        <v>4.99321750190543</v>
       </c>
       <c r="J2">
-        <v>2.6969010681015</v>
+        <v>4.85779035002135</v>
       </c>
       <c r="K2">
-        <v>2.58034095050582</v>
+        <v>4.73604207471194</v>
       </c>
       <c r="L2">
-        <v>2.47047299647285</v>
+        <v>4.61695144992587</v>
       </c>
       <c r="M2">
-        <v>2.36589503299126</v>
+        <v>4.50482184521349</v>
       </c>
       <c r="N2">
-        <v>2.26762003167822</v>
+        <v>4.41539967219201</v>
       </c>
       <c r="O2">
-        <v>2.17436343003533</v>
+        <v>4.34182336989375</v>
       </c>
       <c r="P2">
-        <v>2.08548490370239</v>
+        <v>4.27857734219971</v>
       </c>
       <c r="Q2">
-        <v>2.00134014659215</v>
+        <v>4.22327313442947</v>
       </c>
       <c r="R2">
-        <v>1.92162680428635</v>
+        <v>4.17279246488023</v>
       </c>
       <c r="S2">
-        <v>1.84560397784902</v>
+        <v>4.12357865823198</v>
       </c>
       <c r="T2">
-        <v>1.77221595573701</v>
+        <v>4.07169625960576</v>
       </c>
       <c r="U2">
-        <v>1.7009740608576</v>
+        <v>4.01521882604892</v>
       </c>
       <c r="V2">
-        <v>1.6331643664551</v>
+        <v>3.95779545243241</v>
       </c>
       <c r="W2">
-        <v>1.56871917369966</v>
+        <v>3.8996280535987</v>
       </c>
       <c r="X2">
-        <v>1.50686924057564</v>
+        <v>3.83881254707742</v>
       </c>
       <c r="Y2">
-        <v>1.44688581529147</v>
+        <v>3.77349521754665</v>
       </c>
       <c r="Z2">
-        <v>1.38994026797217</v>
+        <v>3.70824539897495</v>
       </c>
       <c r="AA2">
-        <v>1.33601176717499</v>
+        <v>3.64380028576839</v>
       </c>
       <c r="AB2">
-        <v>1.29027251758197</v>
+        <v>3.5802850436929</v>
       </c>
       <c r="AC2">
-        <v>1.25582553971788</v>
+        <v>3.51688580839498</v>
       </c>
       <c r="AD2">
-        <v>0.617899192545663</v>
+        <v>3.53368864655789</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1251,91 +1251,91 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.0178814221273192</v>
+        <v>0.0167559191375774</v>
       </c>
       <c r="C3">
-        <v>0.00146917111799757</v>
+        <v>0.0162829057910563</v>
       </c>
       <c r="D3">
-        <v>0.00233056120895204</v>
+        <v>0.0167468817844009</v>
       </c>
       <c r="E3">
-        <v>0.0040033229298765</v>
+        <v>0.017307035368936</v>
       </c>
       <c r="F3">
-        <v>0.00328882327734819</v>
+        <v>0.0179391513675521</v>
       </c>
       <c r="G3">
-        <v>0.00467013129339902</v>
+        <v>0.0188290131617311</v>
       </c>
       <c r="H3">
-        <v>0.0263952028235325</v>
+        <v>0.0193169855054177</v>
       </c>
       <c r="I3">
-        <v>0.0274181307403616</v>
+        <v>0.0196620447736864</v>
       </c>
       <c r="J3">
-        <v>0.0282831051483787</v>
+        <v>0.0198953374499611</v>
       </c>
       <c r="K3">
-        <v>0.0287829967071491</v>
+        <v>0.0198698928412169</v>
       </c>
       <c r="L3">
-        <v>0.0292976283915944</v>
+        <v>0.0198634757172624</v>
       </c>
       <c r="M3">
-        <v>0.0299174268228017</v>
+        <v>0.0199085698732243</v>
       </c>
       <c r="N3">
-        <v>0.0304425762373613</v>
+        <v>0.0198097794412175</v>
       </c>
       <c r="O3">
-        <v>0.0310476477107339</v>
+        <v>0.0197009268909797</v>
       </c>
       <c r="P3">
-        <v>0.0318202206563507</v>
+        <v>0.0196520936272986</v>
       </c>
       <c r="Q3">
-        <v>0.0325007509859293</v>
+        <v>0.0195147552121991</v>
       </c>
       <c r="R3">
-        <v>0.0331045950956011</v>
+        <v>0.0193165034955516</v>
       </c>
       <c r="S3">
-        <v>0.0337126753550952</v>
+        <v>0.0191185709418747</v>
       </c>
       <c r="T3">
-        <v>0.0344804344317261</v>
+        <v>0.0190156849069541</v>
       </c>
       <c r="U3">
-        <v>0.0355310695139644</v>
+        <v>0.0190719336142004</v>
       </c>
       <c r="V3">
-        <v>0.0365449196231248</v>
+        <v>0.019107397372877</v>
       </c>
       <c r="W3">
-        <v>0.0375143831886992</v>
+        <v>0.0191213170720513</v>
       </c>
       <c r="X3">
-        <v>0.0385109668851074</v>
+        <v>0.0191540694959751</v>
       </c>
       <c r="Y3">
-        <v>0.0397667226991033</v>
+        <v>0.0193200492929096</v>
       </c>
       <c r="Z3">
-        <v>0.040918381303956</v>
+        <v>0.0194331896823218</v>
       </c>
       <c r="AA3">
-        <v>0.041924253475487</v>
+        <v>0.0194768639196491</v>
       </c>
       <c r="AB3">
-        <v>0.042584431687037</v>
+        <v>0.0194452115629342</v>
       </c>
       <c r="AC3">
-        <v>0.0428599164568257</v>
+        <v>0.019391898894759</v>
       </c>
       <c r="AD3">
-        <v>0.0851820636582114</v>
+        <v>0.0188727626592666</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -1343,99 +1343,183 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>0.0145921957798779</v>
+        <v>0.0136737252096843</v>
       </c>
       <c r="C4">
-        <v>0.00292292071977875</v>
+        <v>0.0128008756786892</v>
       </c>
       <c r="D4">
-        <v>0.015853191372322</v>
+        <v>0.0128325068506554</v>
       </c>
       <c r="E4">
-        <v>0.0164951507425483</v>
+        <v>0.0129597338499841</v>
       </c>
       <c r="F4">
-        <v>0.0171914353383514</v>
+        <v>0.0131590555620083</v>
       </c>
       <c r="G4">
-        <v>0.0180583176789407</v>
+        <v>0.0135078348903972</v>
       </c>
       <c r="H4">
-        <v>0.0187777971535012</v>
+        <v>0.0137422863488841</v>
       </c>
       <c r="I4">
-        <v>0.0195771436903075</v>
+        <v>0.0140391290502192</v>
       </c>
       <c r="J4">
-        <v>0.020406970578734</v>
+        <v>0.0143549855599435</v>
       </c>
       <c r="K4">
-        <v>0.0210918199630658</v>
+        <v>0.014560408937137</v>
       </c>
       <c r="L4">
-        <v>0.0217703909485197</v>
+        <v>0.0147600900039164</v>
       </c>
       <c r="M4">
-        <v>0.0224748059438496</v>
+        <v>0.0149558732831685</v>
       </c>
       <c r="N4">
-        <v>0.0231524708589729</v>
+        <v>0.0150659174722732</v>
       </c>
       <c r="O4">
-        <v>0.0238327855897672</v>
+        <v>0.0151228193158759</v>
       </c>
       <c r="P4">
-        <v>0.0245366776121301</v>
+        <v>0.0151537945303401</v>
       </c>
       <c r="Q4">
-        <v>0.025234549214587</v>
+        <v>0.0151518360614514</v>
       </c>
       <c r="R4">
-        <v>0.0259256309161802</v>
+        <v>0.0151275839130659</v>
       </c>
       <c r="S4">
-        <v>0.026636641340361</v>
+        <v>0.0151057283871716</v>
       </c>
       <c r="T4">
-        <v>0.0274205319498982</v>
+        <v>0.0151222049296619</v>
       </c>
       <c r="U4">
-        <v>0.0283034366785824</v>
+        <v>0.0151923731194046</v>
       </c>
       <c r="V4">
-        <v>0.0292022819842804</v>
+        <v>0.0152683221586668</v>
       </c>
       <c r="W4">
-        <v>0.0301110748580279</v>
+        <v>0.015347804250026</v>
       </c>
       <c r="X4">
-        <v>0.0310804483929856</v>
+        <v>0.0154583776164688</v>
       </c>
       <c r="Y4">
-        <v>0.0321681759189813</v>
+        <v>0.0156284124573263</v>
       </c>
       <c r="Z4">
-        <v>0.0332572268893937</v>
+        <v>0.0157947107841022</v>
       </c>
       <c r="AA4">
-        <v>0.0343305235485702</v>
+        <v>0.0159490242524359</v>
       </c>
       <c r="AB4">
-        <v>0.0352378589908725</v>
+        <v>0.0160905663397861</v>
       </c>
       <c r="AC4">
-        <v>0.0358808908666162</v>
+        <v>0.0162342502146546</v>
       </c>
       <c r="AD4">
-        <v>0.0722587235849344</v>
+        <v>0.0160094940379924</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B5">
+        <v>0.174684975727671</v>
+      </c>
+      <c r="C5">
+        <v>0.163135041133579</v>
+      </c>
+      <c r="D5">
+        <v>0.160946228444712</v>
+      </c>
+      <c r="E5">
+        <v>0.159848157624378</v>
+      </c>
+      <c r="F5">
+        <v>0.159452676263099</v>
+      </c>
+      <c r="G5">
+        <v>0.159871435269972</v>
+      </c>
+      <c r="H5">
+        <v>0.160082690011283</v>
+      </c>
+      <c r="I5">
+        <v>0.160626895586048</v>
+      </c>
+      <c r="J5">
+        <v>0.161310796840951</v>
+      </c>
+      <c r="K5">
+        <v>0.161814579534143</v>
+      </c>
+      <c r="L5">
+        <v>0.186576126158749</v>
+      </c>
+      <c r="M5">
+        <v>0.227831188477435</v>
+      </c>
+      <c r="N5">
+        <v>0.261884873457744</v>
+      </c>
+      <c r="O5">
+        <v>0.297289009400501</v>
+      </c>
+      <c r="P5">
+        <v>0.33113673351814</v>
+      </c>
+      <c r="Q5">
+        <v>0.362066985304624</v>
+      </c>
+      <c r="R5">
+        <v>0.389422595297649</v>
+      </c>
+      <c r="S5">
+        <v>0.413029239762735</v>
+      </c>
+      <c r="T5">
+        <v>0.432966866077923</v>
+      </c>
+      <c r="U5">
+        <v>0.449568988045992</v>
+      </c>
+      <c r="V5">
+        <v>0.463454490294572</v>
+      </c>
+      <c r="W5">
+        <v>0.475000918957889</v>
+      </c>
+      <c r="X5">
+        <v>0.484521798722274</v>
+      </c>
+      <c r="Y5">
+        <v>0.49223584384065</v>
+      </c>
+      <c r="Z5">
+        <v>0.498614767453993</v>
+      </c>
+      <c r="AA5">
+        <v>0.50390546528888</v>
+      </c>
+      <c r="AB5">
+        <v>0.508308915463596</v>
+      </c>
+      <c r="AC5">
+        <v>1.52085228092744</v>
+      </c>
       <c r="AD5">
-        <v>0.0204278298736114</v>
+        <v>0.330868186775736</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1443,91 +1527,91 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>0.111473618164269</v>
+        <v>0.284114620074933</v>
       </c>
       <c r="C6">
-        <v>0.0833920921019649</v>
+        <v>0.271218822603325</v>
       </c>
       <c r="D6">
-        <v>0.0971837528522659</v>
+        <v>0.269525617079768</v>
       </c>
       <c r="E6">
-        <v>0.099498473950445</v>
+        <v>0.269114926843298</v>
       </c>
       <c r="F6">
-        <v>0.0994802589009793</v>
+        <v>0.26955088319266</v>
       </c>
       <c r="G6">
-        <v>0.10172844926558</v>
+        <v>0.271208283322101</v>
       </c>
       <c r="H6">
-        <v>0.124173000277645</v>
+        <v>0.272141961865584</v>
       </c>
       <c r="I6">
-        <v>0.125995274738947</v>
+        <v>0.273328069409954</v>
       </c>
       <c r="J6">
-        <v>0.12769007604315</v>
+        <v>0.274561119850856</v>
       </c>
       <c r="K6">
-        <v>0.128874816993656</v>
+        <v>0.275244881312497</v>
       </c>
       <c r="L6">
-        <v>0.130068019671132</v>
+        <v>0.300199691879928</v>
       </c>
       <c r="M6">
-        <v>0.131392233105543</v>
+        <v>0.341695631633828</v>
       </c>
       <c r="N6">
-        <v>0.132595047443202</v>
+        <v>0.375760570371235</v>
       </c>
       <c r="O6">
-        <v>0.133880433655554</v>
+        <v>0.411112755607357</v>
       </c>
       <c r="P6">
-        <v>0.135356898632035</v>
+        <v>0.444942621675779</v>
       </c>
       <c r="Q6">
-        <v>0.136735300572782</v>
+        <v>0.475733576578275</v>
       </c>
       <c r="R6">
-        <v>0.138030226392978</v>
+        <v>0.502866682706267</v>
       </c>
       <c r="S6">
-        <v>0.139349317085916</v>
+        <v>0.526253539091781</v>
       </c>
       <c r="T6">
-        <v>0.140900966781883</v>
+        <v>0.546104755914539</v>
       </c>
       <c r="U6">
-        <v>0.142834506603222</v>
+        <v>0.562833294779596</v>
       </c>
       <c r="V6">
-        <v>0.144747202028826</v>
+        <v>0.576830209826116</v>
       </c>
       <c r="W6">
-        <v>0.146625458479224</v>
+        <v>0.588470040279967</v>
       </c>
       <c r="X6">
-        <v>0.148591415722207</v>
+        <v>0.598134245834717</v>
       </c>
       <c r="Y6">
-        <v>0.150934899074573</v>
+        <v>0.606184305590886</v>
       </c>
       <c r="Z6">
-        <v>0.153175608662518</v>
+        <v>0.612842667920417</v>
       </c>
       <c r="AA6">
-        <v>0.155254777506167</v>
+        <v>0.618331353460965</v>
       </c>
       <c r="AB6">
-        <v>0.156822291171157</v>
+        <v>0.622844693366316</v>
       </c>
       <c r="AC6">
-        <v>0.157740807824379</v>
+        <v>1.63547843003686</v>
       </c>
       <c r="AD6">
-        <v>0.25686861711675</v>
+        <v>0.444750443472995</v>
       </c>
     </row>
   </sheetData>
